--- a/output_base.xlsx
+++ b/output_base.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Voltage Check" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Line Check" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Delta" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="List of Voltages" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Power Produce at Gen." sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Power Flow at Line" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Line Check" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Voltage Check" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,181 +429,313 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F1" t="n">
         <v>0</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-3.267704866139752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-9.28004011106146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>has exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.033858503924317</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-6.565695835674104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.039027840888835</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-5.559190579524623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>has exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.053622223037471</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-7.772439842136495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>has exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.050795533763743</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-10.8211611009662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.052174468897597</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-10.79087657215552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.052076893603164</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-9.586287361503215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.606183719447549</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.04753969045738</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.842384972098436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Node </t>
+          <t xml:space="preserve">Bus </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>has not exceeded normal operating limits</t>
-        </is>
+          <t xml:space="preserve">Voltage: </t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angle: </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.115159964818874</v>
       </c>
     </row>
   </sheetData>
@@ -611,6 +744,1070 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>145.4456975236109</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F1" t="n">
+        <v>-29.94393175553114</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>18.31060681371679</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>17.41257680098656</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-61.1973434042268</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.641426250208844</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>27.81597921017944</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-11.66067476470327</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>12.1118637533224</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-11.60131475676089</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-57.81499781936388</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.879493013755653</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.577227230852043</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.623455631574444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-13.48669561441054</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>8.515369737503953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-29.50415359414293</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>13.61687928553241</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-9.008927606383166</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5.805990403714034</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.300967196510719</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.106715833290806</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P MW: </t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-13.49186394229598</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Q MVAr: </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5.806176951273478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F1" t="n">
+        <v>28.94459889723767</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>263.4685366470191</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J1" t="n">
+        <v>265.0536919347542</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4.025506580228242</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>-93.51782071109119</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>93.60442026837866</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.177356437856881</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>-119.0617514288137</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>119.0816591014506</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-4.661729122984675</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-171.0839299334992</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>171.147430012567</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-3.679375341188238</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-166.8587580179594</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>166.8993197415654</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6.597418020600314</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>57.57423448369224</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>57.95099999932459</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-11.7325682683649</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>282.756672778415</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>282.9999808460973</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3.797270925104491</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>-172.4391196689609</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>172.4809243327646</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-6.441947587990154</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>-12.28182643916082</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>13.86874000794888</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.4108563683326209</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>-61.78917111043114</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>61.79053705438672</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.1344747605105606</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>-348.6864935845409</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>348.6865195153711</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-7.253377783189293</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10.14549569589895</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>12.4716707854709</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.420296464361459</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>-199.5636853836356</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>199.56873945071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>7.112545209751408</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>221.1588818179802</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>221.2732232023118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Line:</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>P MW:</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4015099548064719</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Q MVAr:</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>91.52177363350415</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>S MVA:</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>91.52265434998148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1020,43 +2217,206 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has not exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>has not exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>has not exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>has not exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>has not exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>has exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>has exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>has exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>has exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>has exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>has not exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>has not exceeded normal operating limits</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/output_base.xlsx
+++ b/output_base.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-3.267704866139752</v>
+        <v>-3.288985973324885</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-9.28004011106146</v>
+        <v>-9.40654370119689</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.033858503924317</v>
+        <v>1.026686015407325</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-6.565695835674104</v>
+        <v>-6.446930295600157</v>
       </c>
     </row>
     <row r="5">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.039027840888835</v>
+        <v>1.03041604762703</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-5.559190579524623</v>
+        <v>-5.443165447507132</v>
       </c>
     </row>
     <row r="6">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.053622223037471</v>
+        <v>1.023127838190915</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-7.772439842136495</v>
+        <v>-7.93228376586049</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.050795533763743</v>
+        <v>0.9899000970456475</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-10.8211611009662</v>
+        <v>-10.62471852952046</v>
       </c>
     </row>
     <row r="8">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.052174468897597</v>
+        <v>0.9871398826020049</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-10.79087657215552</v>
+        <v>-10.47193747336615</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.052076893603164</v>
+        <v>0.9999821763935001</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-9.586287361503215</v>
+        <v>-9.379293137101557</v>
       </c>
     </row>
     <row r="10">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-5.606183719447549</v>
+        <v>-6.813450849860003</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.04753969045738</v>
+        <v>1.024520514246722</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-7.842384972098436</v>
+        <v>-8.137043331948236</v>
       </c>
     </row>
     <row r="12">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-8.115159964818874</v>
+        <v>-9.240190636712651</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>145.4456975236109</v>
+        <v>145.6855570065414</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>-29.94393175553114</v>
+        <v>-26.07569208176841</v>
       </c>
     </row>
     <row r="2">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.31060681371679</v>
+        <v>18.30935206815678</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17.41257680098656</v>
+        <v>26.91573148993482</v>
       </c>
     </row>
     <row r="3">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-61.1973434042268</v>
+        <v>-61.19746402798094</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.641426250208844</v>
+        <v>2.797827024796218</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27.81597921017944</v>
+        <v>27.80330371595592</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-11.66067476470327</v>
+        <v>11.53806254275058</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.1118637533224</v>
+        <v>12.10124069331446</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-11.60131475676089</v>
+        <v>18.43623713079645</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-57.81499781936388</v>
+        <v>-57.81082848226927</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-3.879493013755653</v>
+        <v>3.914601234816084</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-7.577227230852043</v>
+        <v>-7.584385669653662</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.623455631574444</v>
+        <v>-1.584016215751216</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-13.48669561441054</v>
+        <v>-13.50057850796564</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.515369737503953</v>
+        <v>-8.496928737595777</v>
       </c>
     </row>
     <row r="9">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-29.50415359414293</v>
+        <v>-29.49975094828754</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13.61687928553241</v>
+        <v>-13.59816091209538</v>
       </c>
     </row>
     <row r="10">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-9.008927606383166</v>
+        <v>-8.999535327897901</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.805990403714034</v>
+        <v>-5.799572893107197</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-4.300967196510719</v>
+        <v>-4.301519733062209</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.106715833290806</v>
+        <v>-2.098427541727688</v>
       </c>
     </row>
     <row r="12">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-13.49186394229598</v>
+        <v>-13.49829978646424</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.806176951273478</v>
+        <v>-5.799006602643431</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>28.94459889723767</v>
+        <v>29.13731441087245</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="H1" t="n">
-        <v>263.4685366470191</v>
+        <v>263.6412289413129</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="J1" t="n">
-        <v>265.0536919347542</v>
+        <v>265.2464527354962</v>
       </c>
     </row>
     <row r="2">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.025506580228242</v>
+        <v>3.928865104614403</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>-93.51782071109119</v>
+        <v>-92.88219323264077</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>93.60442026837866</v>
+        <v>92.96525050101181</v>
       </c>
     </row>
     <row r="3">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-2.177356437856881</v>
+        <v>-2.238404827183126</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>-119.0617514288137</v>
+        <v>-119.0305654209094</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>119.0816591014506</v>
+        <v>119.0516104913821</v>
       </c>
     </row>
     <row r="4">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-4.661729122984675</v>
+        <v>-4.411180225094884</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-171.0839299334992</v>
+        <v>-169.7702585716088</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>171.147430012567</v>
+        <v>169.8275572645652</v>
       </c>
     </row>
     <row r="5">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-3.679375341188238</v>
+        <v>-3.416027718447857</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-166.8587580179594</v>
+        <v>-165.3032416067919</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>166.8993197415654</v>
+        <v>165.3385343200024</v>
       </c>
     </row>
     <row r="6">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.597418020600314</v>
+        <v>7.15288909806115</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>57.57423448369224</v>
+        <v>57.73300607175841</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>57.95099999932459</v>
+        <v>58.17442576021577</v>
       </c>
     </row>
     <row r="7">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-11.7325682683649</v>
+        <v>-11.52340027894651</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>282.756672778415</v>
+        <v>278.4998812545915</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>282.9999808460973</v>
+        <v>278.7381793239139</v>
       </c>
     </row>
     <row r="8">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.797270925104491</v>
+        <v>2.82301044580551</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-172.4391196689609</v>
+        <v>-159.9574203154806</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>172.4809243327646</v>
+        <v>159.9823293428385</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-6.441947587990154</v>
+        <v>-3.231083537350886</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-12.28182643916082</v>
+        <v>-8.913856829374597</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>13.86874000794888</v>
+        <v>9.481389370758277</v>
       </c>
     </row>
     <row r="12">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.4108563683326209</v>
+        <v>-1.142759790299385</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-61.78917111043114</v>
+        <v>-59.43359956834612</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>61.79053705438672</v>
+        <v>59.44458476252346</v>
       </c>
     </row>
     <row r="13">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.1344747605105606</v>
+        <v>-0.601342349170472</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-348.6864935845409</v>
+        <v>-308.6545654359219</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>348.6865195153711</v>
+        <v>308.6551512239164</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-7.253377783189293</v>
+        <v>-3.509152700773801</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10.14549569589895</v>
+        <v>12.93559452530162</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12.4716707854709</v>
+        <v>13.40312494906921</v>
       </c>
     </row>
     <row r="15">
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-1.420296464361459</v>
+        <v>-1.142296521075247</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-199.5636853836356</v>
+        <v>-177.861351929484</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>199.56873945071</v>
+        <v>177.8650200335238</v>
       </c>
     </row>
     <row r="16">
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.112545209751408</v>
+        <v>4.04276336476019</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>221.1588818179802</v>
+        <v>213.8008517653863</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>221.2732232023118</v>
+        <v>213.839070684541</v>
       </c>
     </row>
     <row r="17">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.4015099548064719</v>
+        <v>1.612588935254693</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>91.52177363350415</v>
+        <v>90.6685022498859</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>91.52265434998148</v>
+        <v>90.68284150439746</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>has exceeded normal operating limits</t>
+          <t>has not exceeded normal operating limits</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>has exceeded normal operating limits</t>
+          <t>has not exceeded normal operating limits</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>has exceeded normal operating limits</t>
+          <t>has not exceeded normal operating limits</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>has exceeded normal operating limits</t>
+          <t>has not exceeded normal operating limits</t>
         </is>
       </c>
     </row>
